--- a/porovnanie.xlsx
+++ b/porovnanie.xlsx
@@ -24,7 +24,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="E14" authorId="0" shapeId="0">
+    <comment ref="F14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0" shapeId="0">
+    <comment ref="F15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,12 +72,90 @@
         </r>
       </text>
     </comment>
+    <comment ref="F18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Použitý počet krokov 85k</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+summary a none majú rovnaké výsledky</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+pokus pre účel zistenia, či rovnaké výsledky nie sú z dôvodu nulovej bety</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="103">
   <si>
     <t>BLEU</t>
   </si>
@@ -191,16 +269,212 @@
   </si>
   <si>
     <t>unigram</t>
+  </si>
+  <si>
+    <t>V16 - Para</t>
+  </si>
+  <si>
+    <t>85000/100000</t>
+  </si>
+  <si>
+    <t>beam_size</t>
+  </si>
+  <si>
+    <t>min_length</t>
+  </si>
+  <si>
+    <t>length_penalty</t>
+  </si>
+  <si>
+    <t>coverage_penalty</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>V17 - 2</t>
+  </si>
+  <si>
+    <t>V17 - 3</t>
+  </si>
+  <si>
+    <t>V17 - [Ep / 2 ] - 1</t>
+  </si>
+  <si>
+    <t>V17 - 4</t>
+  </si>
+  <si>
+    <t>V17 - 5</t>
+  </si>
+  <si>
+    <t>V17 - 1</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>V17 - 7</t>
+  </si>
+  <si>
+    <t>V17 - 6</t>
+  </si>
+  <si>
+    <t>V17 - 8</t>
+  </si>
+  <si>
+    <t>V17 - 9</t>
+  </si>
+  <si>
+    <t>V17 - 10</t>
+  </si>
+  <si>
+    <t>V17 - 11</t>
+  </si>
+  <si>
+    <t>V17 - 12</t>
+  </si>
+  <si>
+    <t>V17 - 13</t>
+  </si>
+  <si>
+    <t>V17 - 14</t>
+  </si>
+  <si>
+    <t>V17 - 15</t>
+  </si>
+  <si>
+    <t>V17 - 16</t>
+  </si>
+  <si>
+    <t>V17 - 17</t>
+  </si>
+  <si>
+    <t>V17 - 18</t>
+  </si>
+  <si>
+    <t>V17 - 19</t>
+  </si>
+  <si>
+    <t>V17 - 20</t>
+  </si>
+  <si>
+    <t>V17 - 21</t>
+  </si>
+  <si>
+    <t>V17 - 22</t>
+  </si>
+  <si>
+    <t>V17 - 23</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>V17 - 24</t>
+  </si>
+  <si>
+    <t>V17 - 25</t>
+  </si>
+  <si>
+    <t>V17 - 26</t>
+  </si>
+  <si>
+    <t>V17 - 27</t>
+  </si>
+  <si>
+    <t>V17 - 28</t>
+  </si>
+  <si>
+    <t>V17 - 29</t>
+  </si>
+  <si>
+    <t>V17 - 30</t>
+  </si>
+  <si>
+    <t>V17 - 31</t>
+  </si>
+  <si>
+    <t>V17 - 32</t>
+  </si>
+  <si>
+    <t>V17 - 33</t>
+  </si>
+  <si>
+    <t>V17 - 34</t>
+  </si>
+  <si>
+    <t>V17 - 35</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>V17 - 36</t>
+  </si>
+  <si>
+    <t>V17 - 37</t>
+  </si>
+  <si>
+    <t>V17 - 38</t>
+  </si>
+  <si>
+    <t>V17 - 39</t>
+  </si>
+  <si>
+    <t>Vykonané na 85K</t>
+  </si>
+  <si>
+    <t>65000/100000</t>
+  </si>
+  <si>
+    <t>V17 - [Ep / 2 ] - 65K</t>
+  </si>
+  <si>
+    <t>Aplikovanie vylepšení translate na základe pokusov</t>
+  </si>
+  <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>V17 - 40</t>
+  </si>
+  <si>
+    <t>V17 - 41</t>
+  </si>
+  <si>
+    <t>V17 - 42</t>
+  </si>
+  <si>
+    <t>V17 - 43</t>
+  </si>
+  <si>
+    <t>V17 - 44</t>
+  </si>
+  <si>
+    <t>V17 - 45</t>
+  </si>
+  <si>
+    <t>V17 - 46</t>
+  </si>
+  <si>
+    <t>V17 - 47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +495,50 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +575,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -281,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -297,6 +631,62 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -577,31 +967,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.36328125" customWidth="1"/>
-    <col min="2" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="23.08984375" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="24.81640625" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" customWidth="1"/>
     <col min="10" max="10" width="13.1796875" customWidth="1"/>
-    <col min="11" max="11" width="10.6328125" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" customWidth="1"/>
-    <col min="14" max="14" width="15.26953125" customWidth="1"/>
-    <col min="15" max="15" width="12.6328125" customWidth="1"/>
-    <col min="16" max="16" width="19.36328125" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" customWidth="1"/>
+    <col min="15" max="15" width="15.36328125" customWidth="1"/>
+    <col min="16" max="16" width="12.1796875" customWidth="1"/>
+    <col min="22" max="22" width="10" customWidth="1"/>
+    <col min="23" max="23" width="10.90625" customWidth="1"/>
+    <col min="24" max="24" width="9.1796875" customWidth="1"/>
+    <col min="25" max="25" width="9.6328125" customWidth="1"/>
+    <col min="26" max="26" width="15.7265625" customWidth="1"/>
+    <col min="27" max="27" width="14" customWidth="1"/>
+    <col min="28" max="28" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,835 +1008,2818 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U1" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3">
-        <v>35.540999999999997</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="D2" s="4">
+        <v>43.715000000000003</v>
+      </c>
+      <c r="C2" s="31">
+        <v>0.6744</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="E2" s="4">
         <v>2000</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>200000</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>8000</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1024</v>
       </c>
       <c r="H2" s="2">
         <v>1024</v>
       </c>
       <c r="I2" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J2" s="2">
         <v>10000</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>512</v>
       </c>
-      <c r="K2" s="10">
+      <c r="L2" s="10">
         <v>512</v>
       </c>
-      <c r="L2" s="10">
+      <c r="M2" s="10">
         <v>0.1</v>
       </c>
-      <c r="M2" s="10">
+      <c r="N2" s="10">
         <v>2</v>
       </c>
-      <c r="N2" s="10">
-        <v>0</v>
-      </c>
       <c r="O2" s="10">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10">
         <v>2</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="R2" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U2" s="1"/>
+      <c r="V2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3">
-        <v>34.454000000000001</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="D3" s="4">
+        <v>39.889000000000003</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.67649999999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="E3" s="4">
         <v>6000</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>100000</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>8000</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1024</v>
       </c>
       <c r="H3" s="2">
         <v>1024</v>
       </c>
       <c r="I3" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J3" s="2">
         <v>10000</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>512</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="10">
         <v>512</v>
       </c>
-      <c r="L3" s="10">
+      <c r="M3" s="10">
         <v>0.1</v>
       </c>
-      <c r="M3" s="10">
+      <c r="N3" s="10">
         <v>2</v>
       </c>
-      <c r="N3" s="10">
-        <v>0</v>
-      </c>
       <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
         <v>2</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="R3" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="2">
+        <v>33.371000000000002</v>
+      </c>
+      <c r="W3" s="32">
+        <v>0.1195</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
-        <v>34.639000000000003</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.97</v>
-      </c>
-      <c r="D4" s="4">
+        <v>39.959000000000003</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="E4" s="4">
         <v>30000</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>100000</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>8000</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1024</v>
       </c>
       <c r="H4" s="2">
         <v>1024</v>
       </c>
       <c r="I4" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J4" s="2">
         <v>10000</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>512</v>
       </c>
-      <c r="K4" s="10">
+      <c r="L4" s="10">
         <v>512</v>
       </c>
-      <c r="L4" s="10">
+      <c r="M4" s="10">
         <v>0.1</v>
       </c>
-      <c r="M4" s="10">
+      <c r="N4" s="10">
         <v>2</v>
       </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
       <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
         <v>2</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="R4" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="2">
+        <v>33.401000000000003</v>
+      </c>
+      <c r="W4" s="32">
+        <v>0.1195</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="4">
-        <v>34.345999999999997</v>
+        <v>40.082000000000001</v>
       </c>
       <c r="C5" s="4">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="D5" s="4">
+        <v>0.49419999999999997</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0.8992</v>
+      </c>
+      <c r="E5" s="4">
         <v>60000</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>100000</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>8000</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1024</v>
       </c>
       <c r="H5" s="2">
         <v>1024</v>
       </c>
       <c r="I5" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J5" s="2">
         <v>10000</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>512</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>512</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <v>0.1</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <v>2</v>
       </c>
-      <c r="N5" s="10">
-        <v>0</v>
-      </c>
       <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
         <v>2</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="R5" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="2">
+        <v>33.404000000000003</v>
+      </c>
+      <c r="W5" s="32">
+        <v>0.1195</v>
+      </c>
+      <c r="X5" s="32">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>32</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="12">
-        <v>34.765999999999998</v>
+        <v>39.908000000000001</v>
       </c>
       <c r="C6" s="12">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="D6" s="12">
+        <v>0.70379999999999998</v>
+      </c>
+      <c r="D6" s="35">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="E6" s="12">
         <v>4000</v>
       </c>
-      <c r="E6" s="12">
+      <c r="F6" s="12">
         <v>100000</v>
       </c>
-      <c r="F6" s="12">
+      <c r="G6" s="12">
         <v>8000</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1024</v>
       </c>
       <c r="H6" s="12">
         <v>1024</v>
       </c>
       <c r="I6" s="12">
+        <v>1024</v>
+      </c>
+      <c r="J6" s="12">
         <v>10000</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="12">
         <v>512</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="18">
         <v>512</v>
       </c>
-      <c r="L6" s="10">
+      <c r="M6" s="18">
         <v>0.1</v>
       </c>
-      <c r="M6" s="10">
+      <c r="N6" s="18">
         <v>2</v>
       </c>
-      <c r="N6" s="10">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10">
+      <c r="O6" s="18">
+        <v>0</v>
+      </c>
+      <c r="P6" s="18">
         <v>2</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="R6" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="11">
+        <v>33.49</v>
+      </c>
+      <c r="W6" s="32">
+        <v>0.1195</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.8831</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>32</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>32.197000000000003</v>
+        <v>46.228000000000002</v>
       </c>
       <c r="C7" s="2">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="D7" s="2">
+        <v>0.69320000000000004</v>
+      </c>
+      <c r="D7" s="34">
+        <v>0.91469999999999996</v>
+      </c>
+      <c r="E7" s="2">
         <v>4000</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>16000</v>
-      </c>
-      <c r="G7" s="4">
-        <v>2048</v>
       </c>
       <c r="H7" s="4">
         <v>2048</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="4">
+        <v>2048</v>
+      </c>
+      <c r="J7" s="2">
         <v>5000</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>512</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="10">
         <v>512</v>
       </c>
-      <c r="L7" s="10">
+      <c r="M7" s="10">
         <v>0.1</v>
       </c>
-      <c r="M7" s="10">
+      <c r="N7" s="10">
         <v>2</v>
       </c>
-      <c r="N7" s="10">
-        <v>0</v>
-      </c>
       <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
         <v>2</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="R7" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" s="11">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="W7" s="32">
+        <v>0.1195</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0.88370000000000004</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>32</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2">
-        <v>30.702999999999999</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="16">
+        <v>47.777000000000001</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.79369999999999996</v>
+      </c>
+      <c r="D8" s="34">
+        <v>0.91469999999999996</v>
+      </c>
+      <c r="E8" s="2">
         <v>4000</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>32000</v>
-      </c>
-      <c r="G8" s="4">
-        <v>2048</v>
       </c>
       <c r="H8" s="4">
         <v>2048</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="4">
+        <v>2048</v>
+      </c>
+      <c r="J8" s="2">
         <v>5000</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>512</v>
       </c>
-      <c r="K8" s="10">
+      <c r="L8" s="10">
         <v>512</v>
       </c>
-      <c r="L8" s="10">
+      <c r="M8" s="10">
         <v>0.1</v>
       </c>
-      <c r="M8" s="10">
+      <c r="N8" s="10">
         <v>2</v>
       </c>
-      <c r="N8" s="10">
-        <v>0</v>
-      </c>
       <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
         <v>2</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="R8" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="V8" s="4">
+        <v>34.262999999999998</v>
+      </c>
+      <c r="W8" s="32">
+        <v>0.1195</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD8" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2">
-        <v>30.062999999999999</v>
+      <c r="B9" s="30">
+        <v>44.686</v>
       </c>
       <c r="C9" s="2">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="D9" s="2">
+        <v>0.73509999999999998</v>
+      </c>
+      <c r="D9" s="34">
+        <v>0.9194</v>
+      </c>
+      <c r="E9" s="2">
         <v>4000</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>50000</v>
-      </c>
-      <c r="G9" s="4">
-        <v>2048</v>
       </c>
       <c r="H9" s="4">
         <v>2048</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="4">
+        <v>2048</v>
+      </c>
+      <c r="J9" s="2">
         <v>5000</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>512</v>
       </c>
-      <c r="K9" s="10">
+      <c r="L9" s="10">
         <v>512</v>
       </c>
-      <c r="L9" s="10">
+      <c r="M9" s="10">
         <v>0.1</v>
       </c>
-      <c r="M9" s="10">
+      <c r="N9" s="10">
         <v>2</v>
       </c>
-      <c r="N9" s="10">
-        <v>0</v>
-      </c>
       <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
         <v>2</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="Q9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="R9" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" s="4">
+        <v>33.374000000000002</v>
+      </c>
+      <c r="W9" s="32">
+        <v>0.1195</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0.88180000000000003</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="2">
-        <v>35.682000000000002</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="D10" s="2">
+        <v>42.027999999999999</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0.6905</v>
+      </c>
+      <c r="D10" s="34">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="E10" s="2">
         <v>4000</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>100000</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>4000</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2048</v>
       </c>
       <c r="H10" s="4">
         <v>2048</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="4">
+        <v>2048</v>
+      </c>
+      <c r="J10" s="2">
         <v>5000</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>512</v>
       </c>
-      <c r="K10" s="10">
+      <c r="L10" s="10">
         <v>512</v>
       </c>
-      <c r="L10" s="10">
+      <c r="M10" s="10">
         <v>0.1</v>
       </c>
-      <c r="M10" s="10">
+      <c r="N10" s="10">
         <v>2</v>
       </c>
-      <c r="N10" s="10">
-        <v>0</v>
-      </c>
       <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
         <v>2</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="Q10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="R10" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" s="4">
+        <v>33.353000000000002</v>
+      </c>
+      <c r="W10" s="32">
+        <v>0.1195</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0.88180000000000003</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AE10" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2">
-        <v>35.290999999999997</v>
+        <v>39.360999999999997</v>
       </c>
       <c r="C11" s="2">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="D11" s="2">
+        <v>0.6744</v>
+      </c>
+      <c r="D11" s="34">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="E11" s="2">
         <v>2000</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>100000</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>8000</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1024</v>
       </c>
       <c r="H11" s="4">
         <v>1024</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="4">
+        <v>1024</v>
+      </c>
+      <c r="J11" s="2">
         <v>5000</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>512</v>
       </c>
-      <c r="K11" s="10">
+      <c r="L11" s="10">
         <v>512</v>
       </c>
-      <c r="L11" s="10">
+      <c r="M11" s="10">
         <v>0.1</v>
       </c>
-      <c r="M11" s="10">
+      <c r="N11" s="10">
         <v>2</v>
       </c>
-      <c r="N11" s="10">
-        <v>0</v>
-      </c>
       <c r="O11" s="10">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
         <v>2</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="Q11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="R11" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="V11" s="4">
+        <v>33.335999999999999</v>
+      </c>
+      <c r="W11" s="32">
+        <v>0.1195</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0.88180000000000003</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="2">
-        <v>35.709000000000003</v>
+        <v>45.228000000000002</v>
       </c>
       <c r="C12" s="2">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="D12" s="2">
+        <v>0.6905</v>
+      </c>
+      <c r="D12" s="44">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="E12" s="2">
         <v>4000</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>100000</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>8000</v>
-      </c>
-      <c r="G12" s="4">
-        <v>2048</v>
       </c>
       <c r="H12" s="4">
         <v>2048</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="4">
+        <v>2048</v>
+      </c>
+      <c r="J12" s="2">
         <v>5000</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>512</v>
       </c>
-      <c r="K12" s="10">
+      <c r="L12" s="10">
         <v>512</v>
       </c>
-      <c r="L12" s="10">
+      <c r="M12" s="10">
         <v>0.1</v>
       </c>
-      <c r="M12" s="10">
+      <c r="N12" s="10">
         <v>2</v>
       </c>
-      <c r="N12" s="10">
-        <v>0</v>
-      </c>
       <c r="O12" s="10">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
         <v>2</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="Q12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="R12" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V12" s="4">
+        <v>33.322000000000003</v>
+      </c>
+      <c r="W12" s="32">
+        <v>0.1195</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0.88170000000000004</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AE12" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2">
-        <v>35.095999999999997</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="D13" s="2">
+        <v>39.866999999999997</v>
+      </c>
+      <c r="C13" s="30">
+        <v>0.7843</v>
+      </c>
+      <c r="D13" s="44">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="E13" s="2">
         <v>4000</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>100000</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>2000</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2048</v>
       </c>
       <c r="H13" s="4">
         <v>2048</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="4">
+        <v>2048</v>
+      </c>
+      <c r="J13" s="2">
         <v>5000</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>512</v>
       </c>
-      <c r="K13" s="10">
+      <c r="L13" s="10">
         <v>512</v>
       </c>
-      <c r="L13" s="10">
+      <c r="M13" s="10">
         <v>0.1</v>
       </c>
-      <c r="M13" s="10">
+      <c r="N13" s="10">
         <v>2</v>
       </c>
-      <c r="N13" s="10">
-        <v>0</v>
-      </c>
       <c r="O13" s="10">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
         <v>2</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="Q13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="R13" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13" s="12">
+        <v>33.311999999999998</v>
+      </c>
+      <c r="W13" s="37">
+        <v>0.1195</v>
+      </c>
+      <c r="X13" s="12">
+        <v>0.88170000000000004</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>32</v>
+      </c>
+      <c r="AC13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="2">
-        <v>35.838000000000001</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="D14" s="2">
+        <v>45.097000000000001</v>
+      </c>
+      <c r="C14" s="30">
+        <v>0.73219999999999996</v>
+      </c>
+      <c r="D14" s="34">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="E14" s="2">
         <v>4000</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>8000</v>
-      </c>
-      <c r="G14" s="4">
-        <v>4096</v>
       </c>
       <c r="H14" s="4">
         <v>4096</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="4">
+        <v>4096</v>
+      </c>
+      <c r="J14" s="2">
         <v>5000</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>512</v>
       </c>
-      <c r="K14" s="10">
+      <c r="L14" s="10">
         <v>512</v>
       </c>
-      <c r="L14" s="10">
+      <c r="M14" s="10">
         <v>0.1</v>
       </c>
-      <c r="M14" s="10">
+      <c r="N14" s="10">
         <v>2</v>
       </c>
-      <c r="N14" s="10">
-        <v>0</v>
-      </c>
       <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
         <v>2</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="Q14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="R14" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="V14" s="4">
+        <v>34.286000000000001</v>
+      </c>
+      <c r="W14" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0.8841</v>
+      </c>
+      <c r="Y14" s="43">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="11">
-        <v>35.86</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="33">
+        <v>45.823999999999998</v>
+      </c>
+      <c r="C15" s="30">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="D15" s="44">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E15" s="2">
         <v>4000</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>8000</v>
-      </c>
-      <c r="G15" s="4">
-        <v>4096</v>
       </c>
       <c r="H15" s="4">
         <v>4096</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="4">
+        <v>4096</v>
+      </c>
+      <c r="J15" s="2">
         <v>5000</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>768</v>
       </c>
-      <c r="K15" s="10">
+      <c r="L15" s="10">
         <v>768</v>
       </c>
-      <c r="L15" s="10">
+      <c r="M15" s="10">
         <v>0.2</v>
       </c>
-      <c r="M15" s="10">
-        <v>1</v>
-      </c>
       <c r="N15" s="10">
         <v>1</v>
       </c>
       <c r="O15" s="10">
+        <v>1</v>
+      </c>
+      <c r="P15" s="10">
         <v>4</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="Q15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="R15" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="U15" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="V15" s="4">
+        <v>34.158999999999999</v>
+      </c>
+      <c r="W15" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="2">
+      <c r="B16" s="34">
+        <v>38.804000000000002</v>
+      </c>
+      <c r="C16" s="32">
+        <v>0.622</v>
+      </c>
+      <c r="D16" s="34">
+        <v>0.8599</v>
+      </c>
+      <c r="E16" s="2">
         <v>4000</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G16" s="2">
         <v>8000</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1024</v>
       </c>
       <c r="H16" s="4">
         <v>1024</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="4">
+        <v>1024</v>
+      </c>
+      <c r="J16" s="2">
         <v>10000</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>512</v>
       </c>
-      <c r="K16" s="10">
+      <c r="L16" s="10">
         <v>512</v>
       </c>
-      <c r="L16" s="10">
+      <c r="M16" s="10">
         <v>0.1</v>
       </c>
-      <c r="M16" s="10">
+      <c r="N16" s="10">
         <v>2</v>
       </c>
-      <c r="N16" s="10">
-        <v>0</v>
-      </c>
       <c r="O16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
         <v>2</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="Q16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="R16" s="10">
         <v>6</v>
       </c>
+      <c r="U16" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="V16" s="4">
+        <v>33.459000000000003</v>
+      </c>
+      <c r="W16" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0.87480000000000002</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2">
+        <v>38.997999999999998</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.31769999999999998</v>
+      </c>
+      <c r="D17" s="34">
+        <v>0.82820000000000005</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F17" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G17" s="2">
+        <v>8000</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1024</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1024</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K17" s="2">
+        <v>512</v>
+      </c>
+      <c r="L17" s="10">
+        <v>512</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="N17" s="10">
+        <v>2</v>
+      </c>
+      <c r="O17" s="10">
+        <v>1</v>
+      </c>
+      <c r="P17" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" s="10">
+        <v>6</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="V17" s="4">
+        <v>34.116999999999997</v>
+      </c>
+      <c r="W17" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0.8871</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="35">
+        <v>33.371000000000002</v>
+      </c>
+      <c r="C18" s="36">
+        <v>0.1195</v>
+      </c>
+      <c r="D18" s="35">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="E18" s="12">
+        <v>2000</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="12">
+        <v>8000</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1024</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1024</v>
+      </c>
+      <c r="J18" s="12">
+        <v>5000</v>
+      </c>
+      <c r="K18" s="12">
+        <v>512</v>
+      </c>
+      <c r="L18" s="18">
+        <v>512</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="N18" s="18">
+        <v>2</v>
+      </c>
+      <c r="O18" s="18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="18">
+        <v>6</v>
+      </c>
+      <c r="U18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18" s="4">
+        <v>34.226999999999997</v>
+      </c>
+      <c r="W18" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="26">
+        <v>33.514000000000003</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0.18290000000000001</v>
+      </c>
+      <c r="D19" s="42">
+        <v>0.88</v>
+      </c>
+      <c r="E19" s="26">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="26">
+        <v>8000</v>
+      </c>
+      <c r="H19" s="28">
+        <v>1024</v>
+      </c>
+      <c r="I19" s="28">
+        <v>1024</v>
+      </c>
+      <c r="J19" s="26">
+        <v>5000</v>
+      </c>
+      <c r="K19" s="26">
+        <v>512</v>
+      </c>
+      <c r="L19" s="29">
+        <v>512</v>
+      </c>
+      <c r="M19" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="N19" s="29">
+        <v>2</v>
+      </c>
+      <c r="O19" s="29">
+        <v>0</v>
+      </c>
+      <c r="P19" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="29">
+        <v>6</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="V19" s="4">
+        <v>34.203000000000003</v>
+      </c>
+      <c r="W19" s="31">
+        <v>0.25280000000000002</v>
+      </c>
+      <c r="X19" s="32">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="41">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0.16189999999999999</v>
+      </c>
+      <c r="D20" s="42">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="E20" s="26">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="26">
+        <v>8000</v>
+      </c>
+      <c r="H20" s="28">
+        <v>1024</v>
+      </c>
+      <c r="I20" s="28">
+        <v>1024</v>
+      </c>
+      <c r="J20" s="26">
+        <v>5000</v>
+      </c>
+      <c r="K20" s="26">
+        <v>512</v>
+      </c>
+      <c r="L20" s="29">
+        <v>512</v>
+      </c>
+      <c r="M20" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="N20" s="29">
+        <v>2</v>
+      </c>
+      <c r="O20" s="29">
+        <v>0</v>
+      </c>
+      <c r="P20" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="29">
+        <v>6</v>
+      </c>
+      <c r="U20" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="V20" s="4">
+        <v>34.191000000000003</v>
+      </c>
+      <c r="W20" s="31">
+        <v>0.25280000000000002</v>
+      </c>
+      <c r="X20" s="32">
+        <v>0.88819999999999999</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="U21" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="V21" s="4">
+        <v>34.171999999999997</v>
+      </c>
+      <c r="W21" s="31">
+        <v>0.25280000000000002</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0.88859999999999995</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC21" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="U22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="V22" s="4">
+        <v>34.134</v>
+      </c>
+      <c r="W22" s="31">
+        <v>0.25280000000000002</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0.88859999999999995</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC22" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="R23" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="S23" s="45"/>
+      <c r="U23" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="V23" s="4">
+        <v>34.192999999999998</v>
+      </c>
+      <c r="W23" s="38">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="X23" s="32">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>15</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC23" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="U24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="V24" s="3">
+        <v>34.17</v>
+      </c>
+      <c r="W24" s="38">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>20</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC24" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="U25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="V25" s="4">
+        <v>34.122</v>
+      </c>
+      <c r="W25" s="38">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="X25" s="32">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>25</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC25" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="U26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="V26" s="4">
+        <v>34.197000000000003</v>
+      </c>
+      <c r="W26" s="38">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="X26" s="32">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>16</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="U27" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V27" s="4">
+        <v>34.215000000000003</v>
+      </c>
+      <c r="W27" s="38">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="X27" s="32">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="Y27" s="40">
+        <v>17</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>32</v>
+      </c>
+      <c r="AC27" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U28" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V28" s="12">
+        <v>34.188000000000002</v>
+      </c>
+      <c r="W28" s="39">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="X28" s="12">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="Y28" s="12">
+        <v>18</v>
+      </c>
+      <c r="Z28" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB28" s="12">
+        <v>32</v>
+      </c>
+      <c r="AC28" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD28" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="U29" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="V29" s="4">
+        <v>34.284999999999997</v>
+      </c>
+      <c r="W29" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X29" s="32">
+        <v>0.8841</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>16</v>
+      </c>
+      <c r="AC29" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="U30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="V30" s="4">
+        <v>34.284999999999997</v>
+      </c>
+      <c r="W30" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X30" s="32">
+        <v>0.8841</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>8</v>
+      </c>
+      <c r="AC30" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="U31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="V31" s="4">
+        <v>34.284999999999997</v>
+      </c>
+      <c r="W31" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X31" s="2">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>64</v>
+      </c>
+      <c r="AC31" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="U32" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="V32" s="4">
+        <v>34.284999999999997</v>
+      </c>
+      <c r="W32" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X32" s="2">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB32" s="40">
+        <v>128</v>
+      </c>
+      <c r="AC32" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="21:31" x14ac:dyDescent="0.35">
+      <c r="U33" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V33" s="4">
+        <v>34.284999999999997</v>
+      </c>
+      <c r="W33" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X33" s="2">
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>256</v>
+      </c>
+      <c r="AC33" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="21:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U34" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V34" s="12">
+        <v>34.284999999999997</v>
+      </c>
+      <c r="W34" s="37">
+        <v>0.1195</v>
+      </c>
+      <c r="X34" s="12">
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="Y34" s="12">
+        <v>3</v>
+      </c>
+      <c r="Z34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB34" s="12">
+        <v>512</v>
+      </c>
+      <c r="AC34" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD34" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="21:31" x14ac:dyDescent="0.35">
+      <c r="U35" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="V35" s="4">
+        <v>34.277000000000001</v>
+      </c>
+      <c r="W35" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X35" s="2">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>128</v>
+      </c>
+      <c r="AC35" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="21:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U36" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="V36" s="12">
+        <v>34.197000000000003</v>
+      </c>
+      <c r="W36" s="37">
+        <v>0.1195</v>
+      </c>
+      <c r="X36" s="12">
+        <v>0.88390000000000002</v>
+      </c>
+      <c r="Y36" s="12">
+        <v>3</v>
+      </c>
+      <c r="Z36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB36" s="12">
+        <v>128</v>
+      </c>
+      <c r="AC36" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD36" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="21:31" x14ac:dyDescent="0.35">
+      <c r="U37" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="V37" s="4">
+        <v>33.881999999999998</v>
+      </c>
+      <c r="W37" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X37" s="2">
+        <v>0.88260000000000005</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>128</v>
+      </c>
+      <c r="AC37" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="21:31" x14ac:dyDescent="0.35">
+      <c r="U38" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="V38" s="4">
+        <v>34.284999999999997</v>
+      </c>
+      <c r="W38" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X38" s="2">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>128</v>
+      </c>
+      <c r="AC38" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="21:31" x14ac:dyDescent="0.35">
+      <c r="U39" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="V39" s="4">
+        <v>34.284999999999997</v>
+      </c>
+      <c r="W39" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X39" s="2">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB39" s="4">
+        <v>128</v>
+      </c>
+      <c r="AC39" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AE39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="21:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U40" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="V40" s="12">
+        <v>34.284999999999997</v>
+      </c>
+      <c r="W40" s="37">
+        <v>0.1195</v>
+      </c>
+      <c r="X40" s="12">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="Y40" s="12">
+        <v>3</v>
+      </c>
+      <c r="Z40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB40" s="12">
+        <v>128</v>
+      </c>
+      <c r="AC40" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD40" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="AE40" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="21:31" x14ac:dyDescent="0.35">
+      <c r="U41" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="V41" s="4">
+        <v>34.271999999999998</v>
+      </c>
+      <c r="W41" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X41" s="2">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB41" s="4">
+        <v>128</v>
+      </c>
+      <c r="AC41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42" spans="21:31" x14ac:dyDescent="0.35">
+      <c r="U42" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="V42" s="4">
+        <v>34.274000000000001</v>
+      </c>
+      <c r="W42" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X42" s="2">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="Y42" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB42" s="4">
+        <v>128</v>
+      </c>
+      <c r="AC42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="43" spans="21:31" x14ac:dyDescent="0.35">
+      <c r="U43" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="V43" s="3">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="W43" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X43" s="2">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z43" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB43" s="4">
+        <v>128</v>
+      </c>
+      <c r="AC43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="44" spans="21:31" x14ac:dyDescent="0.35">
+      <c r="U44" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="V44" s="4">
+        <v>34.277999999999999</v>
+      </c>
+      <c r="W44" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X44" s="2">
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="Y44" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB44" s="4">
+        <v>128</v>
+      </c>
+      <c r="AC44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="45" spans="21:31" x14ac:dyDescent="0.35">
+      <c r="U45" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="V45" s="4">
+        <v>34.259</v>
+      </c>
+      <c r="W45" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X45" s="2">
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB45" s="4">
+        <v>128</v>
+      </c>
+      <c r="AC45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="21:31" x14ac:dyDescent="0.35">
+      <c r="U46" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="V46" s="3">
+        <v>34.253999999999998</v>
+      </c>
+      <c r="W46" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X46" s="44">
+        <v>0.88439999999999996</v>
+      </c>
+      <c r="Y46" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB46" s="4">
+        <v>128</v>
+      </c>
+      <c r="AC46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="47" spans="21:31" x14ac:dyDescent="0.35">
+      <c r="U47" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="V47" s="4">
+        <v>34.218000000000004</v>
+      </c>
+      <c r="W47" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X47" s="2">
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="Y47" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z47" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB47" s="4">
+        <v>128</v>
+      </c>
+      <c r="AC47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD47" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="21:31" x14ac:dyDescent="0.35">
+      <c r="U48" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="V48" s="4">
+        <v>34.222999999999999</v>
+      </c>
+      <c r="W48" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X48" s="2">
+        <v>0.88439999999999996</v>
+      </c>
+      <c r="Y48" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z48" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB48" s="4">
+        <v>128</v>
+      </c>
+      <c r="AC48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="21:31" x14ac:dyDescent="0.35">
+      <c r="U49" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="V49" s="4">
+        <v>34.218000000000004</v>
+      </c>
+      <c r="W49" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X49" s="2">
+        <v>0.8841</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z49" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB49" s="4">
+        <v>128</v>
+      </c>
+      <c r="AC49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="21:31" x14ac:dyDescent="0.35">
+      <c r="U50" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="V50" s="4">
+        <v>34.197000000000003</v>
+      </c>
+      <c r="W50" s="31">
+        <v>0.1195</v>
+      </c>
+      <c r="X50" s="2">
+        <v>0.88390000000000002</v>
+      </c>
+      <c r="Y50" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB50" s="4">
+        <v>128</v>
+      </c>
+      <c r="AC50" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="R23:S26"/>
+    <mergeCell ref="U1:AE1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/porovnanie.xlsx
+++ b/porovnanie.xlsx
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="104">
   <si>
     <t>BLEU</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t>V17 - 47</t>
+  </si>
+  <si>
+    <t>V17 - 48</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -687,6 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -969,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="L23" workbookViewId="0">
+      <selection activeCell="X31" sqref="X31:X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -991,13 +995,15 @@
     <col min="14" max="14" width="12.54296875" customWidth="1"/>
     <col min="15" max="15" width="15.36328125" customWidth="1"/>
     <col min="16" max="16" width="12.1796875" customWidth="1"/>
+    <col min="17" max="17" width="19.90625" customWidth="1"/>
     <col min="22" max="22" width="10" customWidth="1"/>
     <col min="23" max="23" width="10.90625" customWidth="1"/>
     <col min="24" max="24" width="9.1796875" customWidth="1"/>
     <col min="25" max="25" width="9.6328125" customWidth="1"/>
-    <col min="26" max="26" width="15.7265625" customWidth="1"/>
+    <col min="26" max="26" width="12.08984375" customWidth="1"/>
     <col min="27" max="27" width="14" customWidth="1"/>
     <col min="28" max="28" width="10" customWidth="1"/>
+    <col min="30" max="30" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
@@ -1514,7 +1520,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>46.228000000000002</v>
+        <v>46.226999999999997</v>
       </c>
       <c r="C7" s="2">
         <v>0.69320000000000004</v>
@@ -2190,7 +2196,7 @@
       <c r="U14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="40">
         <v>34.286000000000001</v>
       </c>
       <c r="W14" s="31">
@@ -3049,8 +3055,8 @@
       <c r="U29" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="V29" s="4">
-        <v>34.284999999999997</v>
+      <c r="V29" s="40">
+        <v>34.286000000000001</v>
       </c>
       <c r="W29" s="31">
         <v>0.1195</v>
@@ -3084,8 +3090,8 @@
       <c r="U30" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="V30" s="4">
-        <v>34.284999999999997</v>
+      <c r="V30" s="40">
+        <v>34.286000000000001</v>
       </c>
       <c r="W30" s="31">
         <v>0.1195</v>
@@ -3119,8 +3125,8 @@
       <c r="U31" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V31" s="4">
-        <v>34.284999999999997</v>
+      <c r="V31" s="40">
+        <v>34.286000000000001</v>
       </c>
       <c r="W31" s="31">
         <v>0.1195</v>
@@ -3152,10 +3158,10 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="U32" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="V32" s="4">
-        <v>34.284999999999997</v>
+        <v>79</v>
+      </c>
+      <c r="V32" s="40">
+        <v>34.286000000000001</v>
       </c>
       <c r="W32" s="31">
         <v>0.1195</v>
@@ -3187,10 +3193,10 @@
     </row>
     <row r="33" spans="21:31" x14ac:dyDescent="0.35">
       <c r="U33" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="V33" s="4">
-        <v>34.284999999999997</v>
+        <v>80</v>
+      </c>
+      <c r="V33" s="40">
+        <v>34.286000000000001</v>
       </c>
       <c r="W33" s="31">
         <v>0.1195</v>
@@ -3222,10 +3228,10 @@
     </row>
     <row r="34" spans="21:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="U34" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="V34" s="12">
-        <v>34.284999999999997</v>
+        <v>81</v>
+      </c>
+      <c r="V34" s="47">
+        <v>34.286000000000001</v>
       </c>
       <c r="W34" s="37">
         <v>0.1195</v>
@@ -3257,7 +3263,7 @@
     </row>
     <row r="35" spans="21:31" x14ac:dyDescent="0.35">
       <c r="U35" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V35" s="4">
         <v>34.277000000000001</v>
@@ -3292,7 +3298,7 @@
     </row>
     <row r="36" spans="21:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="U36" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V36" s="12">
         <v>34.197000000000003</v>
@@ -3327,7 +3333,7 @@
     </row>
     <row r="37" spans="21:31" x14ac:dyDescent="0.35">
       <c r="U37" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V37" s="4">
         <v>33.881999999999998</v>
@@ -3362,7 +3368,7 @@
     </row>
     <row r="38" spans="21:31" x14ac:dyDescent="0.35">
       <c r="U38" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V38" s="4">
         <v>34.284999999999997</v>
@@ -3397,7 +3403,7 @@
     </row>
     <row r="39" spans="21:31" x14ac:dyDescent="0.35">
       <c r="U39" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V39" s="4">
         <v>34.284999999999997</v>
@@ -3432,7 +3438,7 @@
     </row>
     <row r="40" spans="21:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="U40" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V40" s="12">
         <v>34.284999999999997</v>
@@ -3467,7 +3473,7 @@
     </row>
     <row r="41" spans="21:31" x14ac:dyDescent="0.35">
       <c r="U41" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V41" s="4">
         <v>34.271999999999998</v>
@@ -3502,7 +3508,7 @@
     </row>
     <row r="42" spans="21:31" x14ac:dyDescent="0.35">
       <c r="U42" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="V42" s="4">
         <v>34.274000000000001</v>
@@ -3537,7 +3543,7 @@
     </row>
     <row r="43" spans="21:31" x14ac:dyDescent="0.35">
       <c r="U43" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V43" s="3">
         <v>34.270000000000003</v>
@@ -3572,7 +3578,7 @@
     </row>
     <row r="44" spans="21:31" x14ac:dyDescent="0.35">
       <c r="U44" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="V44" s="4">
         <v>34.277999999999999</v>
@@ -3607,7 +3613,7 @@
     </row>
     <row r="45" spans="21:31" x14ac:dyDescent="0.35">
       <c r="U45" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="V45" s="4">
         <v>34.259</v>
@@ -3642,7 +3648,7 @@
     </row>
     <row r="46" spans="21:31" x14ac:dyDescent="0.35">
       <c r="U46" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V46" s="3">
         <v>34.253999999999998</v>
@@ -3677,7 +3683,7 @@
     </row>
     <row r="47" spans="21:31" x14ac:dyDescent="0.35">
       <c r="U47" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V47" s="4">
         <v>34.218000000000004</v>
@@ -3712,7 +3718,7 @@
     </row>
     <row r="48" spans="21:31" x14ac:dyDescent="0.35">
       <c r="U48" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V48" s="4">
         <v>34.222999999999999</v>
@@ -3747,7 +3753,7 @@
     </row>
     <row r="49" spans="21:31" x14ac:dyDescent="0.35">
       <c r="U49" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="V49" s="4">
         <v>34.218000000000004</v>
@@ -3782,7 +3788,7 @@
     </row>
     <row r="50" spans="21:31" x14ac:dyDescent="0.35">
       <c r="U50" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="V50" s="4">
         <v>34.197000000000003</v>

--- a/porovnanie.xlsx
+++ b/porovnanie.xlsx
@@ -684,13 +684,13 @@
     <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L23" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31:X34"/>
+    <sheetView tabSelected="1" topLeftCell="L19" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1003,6 +1003,7 @@
     <col min="26" max="26" width="12.08984375" customWidth="1"/>
     <col min="27" max="27" width="14" customWidth="1"/>
     <col min="28" max="28" width="10" customWidth="1"/>
+    <col min="29" max="29" width="14.36328125" customWidth="1"/>
     <col min="30" max="30" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1058,19 +1059,19 @@
       <c r="R1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -2832,10 +2833,10 @@
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="R23" s="45" t="s">
+      <c r="R23" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="S23" s="45"/>
+      <c r="S23" s="46"/>
       <c r="U23" s="14" t="s">
         <v>69</v>
       </c>
@@ -2871,8 +2872,8 @@
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
       <c r="U24" s="14" t="s">
         <v>70</v>
       </c>
@@ -2908,8 +2909,8 @@
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
       <c r="U25" s="14" t="s">
         <v>71</v>
       </c>
@@ -2945,8 +2946,8 @@
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
       <c r="U26" s="14" t="s">
         <v>73</v>
       </c>
@@ -3230,7 +3231,7 @@
       <c r="U34" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="V34" s="47">
+      <c r="V34" s="45">
         <v>34.286000000000001</v>
       </c>
       <c r="W34" s="37">
